--- a/Task2/Results/GroupByPropertyID/SC.xlsx
+++ b/Task2/Results/GroupByPropertyID/SC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="99">
   <si>
     <t>Property_id</t>
   </si>
@@ -672,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,7 +715,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -730,13 +730,13 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>142575</v>
+        <v>114075</v>
       </c>
       <c r="H2">
-        <v>71287.5</v>
+        <v>28518.75</v>
       </c>
       <c r="I2">
         <v>52</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -768,19 +768,19 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>142575</v>
+        <v>114075</v>
       </c>
       <c r="H3">
-        <v>71287.5</v>
+        <v>28518.75</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -806,19 +806,19 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>73555</v>
+        <v>46935</v>
       </c>
       <c r="H4">
-        <v>18388.75</v>
+        <v>15645</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -844,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>73555</v>
+        <v>46935</v>
       </c>
       <c r="H5">
-        <v>18388.75</v>
+        <v>15645</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>86560</v>
       </c>
       <c r="H6">
-        <v>43280</v>
+        <v>21640</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -920,19 +920,19 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>167630</v>
+        <v>142165</v>
       </c>
       <c r="H7">
-        <v>55876.66666666666</v>
+        <v>28433</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -952,25 +952,25 @@
         <v>42363</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>167630</v>
+        <v>142165</v>
       </c>
       <c r="H8">
-        <v>83815</v>
+        <v>28433</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -981,34 +981,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>42363</v>
+        <v>42364</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>167630</v>
+        <v>90700</v>
       </c>
       <c r="H9">
-        <v>55876.66666666666</v>
+        <v>30233.33333333333</v>
       </c>
       <c r="I9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1019,31 +1019,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>42363</v>
+        <v>42364</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>167630</v>
+        <v>90700</v>
       </c>
       <c r="H10">
-        <v>83815</v>
+        <v>30233.33333333333</v>
       </c>
       <c r="I10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1057,34 +1057,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>42364</v>
+        <v>42020</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>153700</v>
+        <v>44435</v>
       </c>
       <c r="H11">
-        <v>153700</v>
+        <v>14811.66666666667</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1095,34 +1095,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>877</v>
+        <v>1135</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>42364</v>
+        <v>42133</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>153700</v>
+        <v>32900</v>
       </c>
       <c r="H12">
-        <v>51233.33333333334</v>
+        <v>8225</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1133,34 +1133,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>886</v>
+        <v>1136</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>42364</v>
+        <v>42133</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>153700</v>
+        <v>32900</v>
       </c>
       <c r="H13">
-        <v>51233.33333333334</v>
+        <v>8225</v>
       </c>
       <c r="I13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1171,34 +1171,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>926</v>
+        <v>1180</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>42020</v>
+        <v>42017</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>71055</v>
+        <v>75537</v>
       </c>
       <c r="H14">
-        <v>17763.75</v>
+        <v>18884.25</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1209,34 +1209,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>42133</v>
+        <v>42017</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15">
-        <v>48800</v>
+        <v>75537</v>
       </c>
       <c r="H15">
-        <v>12200</v>
+        <v>18884.25</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J15">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1247,34 +1247,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>1268</v>
+        <v>1333</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>42133</v>
+        <v>42018</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>48800</v>
+        <v>70572</v>
       </c>
       <c r="H16">
-        <v>12200</v>
+        <v>17643</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1285,34 +1285,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>1314</v>
+        <v>1507</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>42017</v>
+        <v>42303</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>104561</v>
+        <v>45150</v>
       </c>
       <c r="H17">
-        <v>34853.66666666666</v>
+        <v>22575</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1323,34 +1323,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>1387</v>
+        <v>1556</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>42017</v>
+        <v>42303</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>104561</v>
+        <v>45150</v>
       </c>
       <c r="H18">
-        <v>104561</v>
+        <v>22575</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1361,34 +1361,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>1434</v>
+        <v>1719</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>42017</v>
+        <v>42304</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>104561</v>
+        <v>55950</v>
       </c>
       <c r="H19">
-        <v>34853.66666666666</v>
+        <v>13987.5</v>
       </c>
       <c r="I19">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1399,34 +1399,34 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>1483</v>
+        <v>1720</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>42018</v>
+        <v>42304</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>99596</v>
+        <v>55950</v>
       </c>
       <c r="H20">
-        <v>33198.66666666666</v>
+        <v>13987.5</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1437,34 +1437,34 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>1609</v>
+        <v>1856</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>42018</v>
+        <v>42295</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>99596</v>
+        <v>7950</v>
       </c>
       <c r="H21">
-        <v>99596</v>
+        <v>7950</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1475,34 +1475,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>1678</v>
+        <v>1916</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>42303</v>
+        <v>42025</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>79050</v>
+        <v>42750</v>
       </c>
       <c r="H22">
-        <v>79050</v>
+        <v>21375</v>
       </c>
       <c r="I22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1513,34 +1513,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>1736</v>
+        <v>2067</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>42303</v>
+        <v>42086</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>79050</v>
+        <v>16125</v>
       </c>
       <c r="H23">
-        <v>39525</v>
+        <v>16125</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1551,34 +1551,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>1909</v>
+        <v>2131</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>42304</v>
+        <v>42110</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>55950</v>
+        <v>16125</v>
       </c>
       <c r="H24">
-        <v>13987.5</v>
+        <v>16125</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1589,34 +1589,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>1910</v>
+        <v>2308</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>42304</v>
+        <v>42027</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>55950</v>
+        <v>74335</v>
       </c>
       <c r="H25">
-        <v>13987.5</v>
+        <v>18583.75</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1627,34 +1627,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>2070</v>
+        <v>2360</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>42295</v>
+        <v>42027</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>7950</v>
+        <v>74335</v>
       </c>
       <c r="H26">
-        <v>7950</v>
+        <v>18583.75</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J26">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1665,34 +1665,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>2130</v>
+        <v>2514</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>42025</v>
+        <v>42028</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>69375</v>
+        <v>68800</v>
       </c>
       <c r="H27">
-        <v>69375</v>
+        <v>17200</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1703,34 +1703,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>2301</v>
+        <v>2515</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>42086</v>
+        <v>42028</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>48375</v>
+        <v>68800</v>
       </c>
       <c r="H28">
-        <v>24187.5</v>
+        <v>17200</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1741,34 +1741,34 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>2375</v>
+        <v>2584</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>42110</v>
+        <v>42028</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>16125</v>
+        <v>68800</v>
       </c>
       <c r="H29">
-        <v>16125</v>
+        <v>17200</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J29">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1779,34 +1779,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>2567</v>
+        <v>2585</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>42027</v>
+        <v>42028</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30">
-        <v>124860</v>
+        <v>68800</v>
       </c>
       <c r="H30">
-        <v>31215</v>
+        <v>17200</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J30">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1817,34 +1817,34 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>2586</v>
+        <v>2812</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>42027</v>
+        <v>42029</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>124860</v>
+        <v>29435</v>
       </c>
       <c r="H31">
-        <v>124860</v>
+        <v>14717.5</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1855,34 +1855,34 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>2624</v>
+        <v>2968</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>42027</v>
+        <v>42095</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>124860</v>
+        <v>51343</v>
       </c>
       <c r="H32">
-        <v>31215</v>
+        <v>17114.33333333333</v>
       </c>
       <c r="I32">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1893,34 +1893,34 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>2792</v>
+        <v>2986</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>42028</v>
+        <v>42095</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>169850</v>
+        <v>51343</v>
       </c>
       <c r="H33">
-        <v>28308.33333333333</v>
+        <v>17114.33333333333</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J33">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1931,34 +1931,34 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>2793</v>
+        <v>3073</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>42028</v>
+        <v>42096</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>169850</v>
+        <v>56593</v>
       </c>
       <c r="H34">
-        <v>28308.33333333333</v>
+        <v>18864.33333333333</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J34">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1969,34 +1969,34 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>2874</v>
+        <v>3087</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>42028</v>
+        <v>42096</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>169850</v>
+        <v>56593</v>
       </c>
       <c r="H35">
-        <v>28308.33333333333</v>
+        <v>18864.33333333333</v>
       </c>
       <c r="I35">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2007,34 +2007,34 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>2875</v>
+        <v>3175</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>42028</v>
+        <v>42038</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>169850</v>
+        <v>61305</v>
       </c>
       <c r="H36">
-        <v>28308.33333333333</v>
+        <v>20435</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>108</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2045,34 +2045,34 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>3135</v>
+        <v>3323</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>42029</v>
+        <v>42062</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>61685</v>
+        <v>72330</v>
       </c>
       <c r="H37">
-        <v>20561.66666666667</v>
+        <v>18082.5</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2083,34 +2083,34 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>3320</v>
+        <v>3486</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>42095</v>
+        <v>42081</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38">
-        <v>105659</v>
+        <v>16125</v>
       </c>
       <c r="H38">
-        <v>52829.5</v>
+        <v>8062.5</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2121,34 +2121,34 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>3340</v>
+        <v>3592</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>42095</v>
+        <v>42084</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>105659</v>
+        <v>26625</v>
       </c>
       <c r="H39">
-        <v>105659</v>
+        <v>26625</v>
       </c>
       <c r="I39">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2159,34 +2159,34 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>3439</v>
+        <v>3742</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>42096</v>
+        <v>42091</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>143159</v>
+        <v>34400</v>
       </c>
       <c r="H40">
-        <v>143159</v>
+        <v>11466.66666666667</v>
       </c>
       <c r="I40">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2197,34 +2197,34 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>3456</v>
+        <v>3760</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>42096</v>
+        <v>42091</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F41">
         <v>3</v>
       </c>
       <c r="G41">
-        <v>143159</v>
+        <v>34400</v>
       </c>
       <c r="H41">
-        <v>47719.66666666666</v>
+        <v>11466.66666666667</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J41">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2235,34 +2235,34 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>3555</v>
+        <v>3794</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>42038</v>
+        <v>42097</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>61305</v>
+        <v>106593</v>
       </c>
       <c r="H42">
-        <v>30652.5</v>
+        <v>21318.6</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2273,34 +2273,34 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>3625</v>
+        <v>3807</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>42038</v>
+        <v>42097</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>61305</v>
+        <v>106593</v>
       </c>
       <c r="H43">
-        <v>61305</v>
+        <v>21318.6</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J43">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2311,34 +2311,34 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>3720</v>
+        <v>3925</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="2">
-        <v>42062</v>
+        <v>42099</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
       <c r="G44">
-        <v>155010</v>
+        <v>66100</v>
       </c>
       <c r="H44">
-        <v>38752.5</v>
+        <v>16525</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2349,34 +2349,34 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>3845</v>
+        <v>3995</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>42062</v>
+        <v>42099</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>155010</v>
+        <v>66100</v>
       </c>
       <c r="H45">
-        <v>155010</v>
+        <v>16525</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J45">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2387,34 +2387,34 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>3902</v>
+        <v>4010</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2">
-        <v>42081</v>
+        <v>42262</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>48375</v>
+        <v>22350</v>
       </c>
       <c r="H46">
-        <v>24187.5</v>
+        <v>7450</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2425,34 +2425,34 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>3972</v>
+        <v>4388</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>42081</v>
+        <v>42318</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>48375</v>
+        <v>150710</v>
       </c>
       <c r="H47">
-        <v>48375</v>
+        <v>18838.75</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2463,34 +2463,34 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>4022</v>
+        <v>4389</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="2">
-        <v>42084</v>
+        <v>42318</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>26625</v>
+        <v>150710</v>
       </c>
       <c r="H48">
-        <v>26625</v>
+        <v>18838.75</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2501,34 +2501,34 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>4185</v>
+        <v>4638</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>42091</v>
+        <v>42319</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="G49">
-        <v>66650</v>
+        <v>57900</v>
       </c>
       <c r="H49">
-        <v>16662.5</v>
+        <v>14475</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2539,34 +2539,34 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>4206</v>
+        <v>4639</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2">
-        <v>42091</v>
+        <v>42319</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50">
-        <v>66650</v>
+        <v>57900</v>
       </c>
       <c r="H50">
-        <v>16662.5</v>
+        <v>14475</v>
       </c>
       <c r="I50">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2577,34 +2577,34 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>4253</v>
+        <v>4728</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>42097</v>
+        <v>42319</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51">
-        <v>193159</v>
+        <v>57900</v>
       </c>
       <c r="H51">
-        <v>48289.75</v>
+        <v>14475</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J51">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2615,31 +2615,31 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>4269</v>
+        <v>4729</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="2">
-        <v>42097</v>
+        <v>42319</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>193159</v>
+        <v>57900</v>
       </c>
       <c r="H52">
-        <v>96579.5</v>
+        <v>14475</v>
       </c>
       <c r="I52">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2653,34 +2653,34 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>4407</v>
+        <v>4804</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="2">
-        <v>42099</v>
+        <v>42320</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>66100</v>
+        <v>92360</v>
       </c>
       <c r="H53">
-        <v>33050</v>
+        <v>15393.33333333333</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2691,34 +2691,34 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>4486</v>
+        <v>4805</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="2">
-        <v>42099</v>
+        <v>42320</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>66100</v>
+        <v>92360</v>
       </c>
       <c r="H54">
-        <v>33050</v>
+        <v>15393.33333333333</v>
       </c>
       <c r="I54">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2729,34 +2729,34 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>4501</v>
+        <v>5035</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="2">
-        <v>42262</v>
+        <v>42324</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>22350</v>
+        <v>39820</v>
       </c>
       <c r="H55">
-        <v>22350</v>
+        <v>19910</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2767,34 +2767,34 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>4505</v>
+        <v>5215</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="2">
-        <v>42262</v>
+        <v>42325</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>22350</v>
+        <v>16950</v>
       </c>
       <c r="H56">
-        <v>11175</v>
+        <v>16950</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2805,34 +2805,34 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>4917</v>
+        <v>5360</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>42318</v>
+        <v>42333</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>238610</v>
+        <v>89850</v>
       </c>
       <c r="H57">
-        <v>39768.33333333334</v>
+        <v>22462.5</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2843,34 +2843,34 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>4918</v>
+        <v>5361</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>42318</v>
+        <v>42333</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>238610</v>
+        <v>89850</v>
       </c>
       <c r="H58">
-        <v>39768.33333333334</v>
+        <v>22462.5</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2881,34 +2881,34 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>4981</v>
+        <v>5562</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>42318</v>
+        <v>42336</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59">
-        <v>238610</v>
+        <v>77420</v>
       </c>
       <c r="H59">
-        <v>119305</v>
+        <v>19355</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -2919,34 +2919,34 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>4982</v>
+        <v>5658</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="2">
-        <v>42318</v>
+        <v>42049</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>238610</v>
+        <v>63375</v>
       </c>
       <c r="H60">
-        <v>119305</v>
+        <v>21125</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2957,34 +2957,34 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>5201</v>
+        <v>5978</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="2">
-        <v>42319</v>
+        <v>42054</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>91800</v>
+        <v>134210</v>
       </c>
       <c r="H61">
-        <v>45900</v>
+        <v>22368.33333333333</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2995,34 +2995,34 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>5202</v>
+        <v>5979</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>42319</v>
+        <v>42054</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G62">
-        <v>91800</v>
+        <v>134210</v>
       </c>
       <c r="H62">
-        <v>45900</v>
+        <v>22368.33333333333</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3033,34 +3033,34 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>5303</v>
+        <v>6127</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>42319</v>
+        <v>42007</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>91800</v>
+        <v>115355</v>
       </c>
       <c r="H63">
-        <v>45900</v>
+        <v>23071</v>
       </c>
       <c r="I63">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3071,31 +3071,31 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>5304</v>
+        <v>6270</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="2">
-        <v>42319</v>
+        <v>42007</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>91800</v>
+        <v>115355</v>
       </c>
       <c r="H64">
-        <v>45900</v>
+        <v>23071</v>
       </c>
       <c r="I64">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3109,34 +3109,34 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>5389</v>
+        <v>6403</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>42320</v>
+        <v>42009</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>156770</v>
+        <v>76375</v>
       </c>
       <c r="H65">
-        <v>26128.33333333333</v>
+        <v>25458.33333333333</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3147,34 +3147,34 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>5390</v>
+        <v>6433</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="2">
-        <v>42320</v>
+        <v>42009</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>156770</v>
+        <v>76375</v>
       </c>
       <c r="H66">
-        <v>26128.33333333333</v>
+        <v>25458.33333333333</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J66">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3185,28 +3185,28 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>5637</v>
+        <v>6445</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>42324</v>
+        <v>42008</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67">
-        <v>73720</v>
+        <v>51375</v>
       </c>
       <c r="H67">
-        <v>36860</v>
+        <v>25687.5</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3223,34 +3223,34 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>5653</v>
+        <v>6664</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="2">
-        <v>42324</v>
+        <v>42279</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>73720</v>
+        <v>91350</v>
       </c>
       <c r="H68">
-        <v>73720</v>
+        <v>18270</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3261,34 +3261,34 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>5830</v>
+        <v>6696</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>42325</v>
+        <v>42279</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>16950</v>
+        <v>91350</v>
       </c>
       <c r="H69">
-        <v>16950</v>
+        <v>18270</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J69">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3299,34 +3299,34 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>5986</v>
+        <v>6750</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>42333</v>
+        <v>42016</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>89850</v>
+        <v>74287</v>
       </c>
       <c r="H70">
-        <v>44925</v>
+        <v>14857.4</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3337,34 +3337,34 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>5987</v>
+        <v>6901</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>42333</v>
+        <v>42021</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>89850</v>
+        <v>43410</v>
       </c>
       <c r="H71">
-        <v>44925</v>
+        <v>14470</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3375,34 +3375,34 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>6210</v>
+        <v>7052</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>42336</v>
+        <v>42030</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72">
-        <v>77420</v>
+        <v>60750</v>
       </c>
       <c r="H72">
-        <v>25806.66666666667</v>
+        <v>20250</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3413,34 +3413,34 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>6229</v>
+        <v>7126</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>42336</v>
+        <v>42030</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>77420</v>
+        <v>60750</v>
       </c>
       <c r="H73">
-        <v>77420</v>
+        <v>20250</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3451,34 +3451,34 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>6315</v>
+        <v>7224</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>42049</v>
+        <v>42035</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>166125</v>
+        <v>57270</v>
       </c>
       <c r="H74">
-        <v>83062.5</v>
+        <v>19090</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3489,34 +3489,34 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>6412</v>
+        <v>7345</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>42049</v>
+        <v>42344</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>166125</v>
+        <v>30925</v>
       </c>
       <c r="H75">
-        <v>55375</v>
+        <v>15462.5</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3527,34 +3527,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>6674</v>
+        <v>7465</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>42054</v>
+        <v>42355</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>219710</v>
+        <v>36500</v>
       </c>
       <c r="H76">
-        <v>36618.33333333334</v>
+        <v>12166.66666666667</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J76">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3565,34 +3565,34 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>6675</v>
+        <v>7546</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>42054</v>
+        <v>42362</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77">
-        <v>219710</v>
+        <v>113965</v>
       </c>
       <c r="H77">
-        <v>36618.33333333334</v>
+        <v>22793</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3603,34 +3603,34 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>6780</v>
+        <v>7612</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>42054</v>
+        <v>42362</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>219710</v>
+        <v>113965</v>
       </c>
       <c r="H78">
-        <v>109855</v>
+        <v>22793</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J78">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3641,34 +3641,34 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>6781</v>
+        <v>7817</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="2">
-        <v>42054</v>
+        <v>42297</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
       <c r="G79">
-        <v>219710</v>
+        <v>33900</v>
       </c>
       <c r="H79">
-        <v>109855</v>
+        <v>16950</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3679,34 +3679,34 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>6857</v>
+        <v>7818</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="2">
-        <v>42007</v>
+        <v>42297</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>136730</v>
+        <v>33900</v>
       </c>
       <c r="H80">
-        <v>45576.66666666666</v>
+        <v>16950</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3717,34 +3717,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>6906</v>
+        <v>7971</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="2">
-        <v>42007</v>
+        <v>42264</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>136730</v>
+        <v>40760</v>
       </c>
       <c r="H81">
-        <v>68365</v>
+        <v>8152</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3755,34 +3755,34 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>7016</v>
+        <v>8328</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>42007</v>
+        <v>42157</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>136730</v>
+        <v>9000</v>
       </c>
       <c r="H82">
-        <v>45576.66666666666</v>
+        <v>4500</v>
       </c>
       <c r="I82">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3793,34 +3793,34 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>7161</v>
+        <v>8349</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="2">
-        <v>42009</v>
+        <v>42157</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>76375</v>
+        <v>9000</v>
       </c>
       <c r="H83">
-        <v>76375</v>
+        <v>4500</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J83">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3831,34 +3831,34 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>7198</v>
+        <v>8445</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>42009</v>
+        <v>42265</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>76375</v>
+        <v>26800</v>
       </c>
       <c r="H84">
-        <v>38187.5</v>
+        <v>8933.333333333334</v>
       </c>
       <c r="I84">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3869,34 +3869,34 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>7202</v>
+        <v>8486</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>42009</v>
+        <v>42265</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>76375</v>
+        <v>26800</v>
       </c>
       <c r="H85">
-        <v>38187.5</v>
+        <v>8933.333333333334</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J85">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3907,34 +3907,34 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>7211</v>
+        <v>8571</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>42008</v>
+        <v>42108</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G86">
-        <v>94125</v>
+        <v>45000</v>
       </c>
       <c r="H86">
-        <v>47062.5</v>
+        <v>11250</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -3945,34 +3945,34 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>7338</v>
+        <v>8572</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>42008</v>
+        <v>42108</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G87">
-        <v>94125</v>
+        <v>45000</v>
       </c>
       <c r="H87">
-        <v>94125</v>
+        <v>11250</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -3983,34 +3983,34 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>7446</v>
+        <v>8573</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>42279</v>
+        <v>42108</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88">
-        <v>125250</v>
+        <v>45000</v>
       </c>
       <c r="H88">
-        <v>41750</v>
+        <v>11250</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4021,34 +4021,34 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>7481</v>
+        <v>8574</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>42279</v>
+        <v>42108</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>125250</v>
+        <v>45000</v>
       </c>
       <c r="H89">
-        <v>41750</v>
+        <v>11250</v>
       </c>
       <c r="I89">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4059,34 +4059,34 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>7537</v>
+        <v>9036</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>42016</v>
+        <v>42203</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>103311</v>
+        <v>19200</v>
       </c>
       <c r="H90">
-        <v>34437</v>
+        <v>9600</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4097,34 +4097,34 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>7580</v>
+        <v>9146</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>42016</v>
+        <v>42195</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91">
-        <v>103311</v>
+        <v>18375</v>
       </c>
       <c r="H91">
-        <v>51655.5</v>
+        <v>9187.5</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4135,34 +4135,34 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>7704</v>
+        <v>9168</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>42021</v>
+        <v>42195</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>70030</v>
+        <v>18375</v>
       </c>
       <c r="H92">
-        <v>17507.5</v>
+        <v>9187.5</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J92">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4173,34 +4173,34 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>7870</v>
+        <v>9321</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="2">
-        <v>42030</v>
+        <v>42299</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>93000</v>
+        <v>33900</v>
       </c>
       <c r="H93">
-        <v>31000</v>
+        <v>16950</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4211,34 +4211,34 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>7931</v>
+        <v>9322</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>42030</v>
+        <v>42299</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>93000</v>
+        <v>33900</v>
       </c>
       <c r="H94">
-        <v>93000</v>
+        <v>16950</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4249,31 +4249,31 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>7948</v>
+        <v>9468</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>42030</v>
+        <v>42300</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F95">
         <v>3</v>
       </c>
       <c r="G95">
-        <v>93000</v>
+        <v>47625</v>
       </c>
       <c r="H95">
-        <v>31000</v>
+        <v>15875</v>
       </c>
       <c r="I95">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4287,34 +4287,34 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>8061</v>
+        <v>9529</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>42035</v>
+        <v>42300</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>71790</v>
+        <v>47625</v>
       </c>
       <c r="H96">
-        <v>71790</v>
+        <v>15875</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4325,34 +4325,34 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>8081</v>
+        <v>9607</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>42035</v>
+        <v>42114</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>71790</v>
+        <v>21780</v>
       </c>
       <c r="H97">
-        <v>35895</v>
+        <v>21780</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4363,34 +4363,34 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>8190</v>
+        <v>9677</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="2">
-        <v>42344</v>
+        <v>42127</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>30925</v>
+        <v>12000</v>
       </c>
       <c r="H98">
-        <v>15462.5</v>
+        <v>12000</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J98">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4401,34 +4401,34 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>8317</v>
+        <v>9779</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>42355</v>
+        <v>42128</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
       <c r="G99">
-        <v>36500</v>
+        <v>29870</v>
       </c>
       <c r="H99">
-        <v>12166.66666666667</v>
+        <v>9956.666666666666</v>
       </c>
       <c r="I99">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4439,34 +4439,34 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>8402</v>
+        <v>9780</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>42362</v>
+        <v>42128</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100">
-        <v>139430</v>
+        <v>29870</v>
       </c>
       <c r="H100">
-        <v>69715</v>
+        <v>9956.666666666666</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J100">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4477,31 +4477,31 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>8480</v>
+        <v>9816</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>42362</v>
+        <v>42144</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101">
-        <v>139430</v>
+        <v>29800</v>
       </c>
       <c r="H101">
-        <v>46476.66666666666</v>
+        <v>9933.333333333334</v>
       </c>
       <c r="I101">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4515,31 +4515,31 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>8533</v>
+        <v>10005</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="2">
-        <v>42362</v>
+        <v>42171</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>139430</v>
+        <v>32700</v>
       </c>
       <c r="H102">
-        <v>69715</v>
+        <v>10900</v>
       </c>
       <c r="I102">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4553,34 +4553,34 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>8700</v>
+        <v>10035</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="2">
-        <v>42297</v>
+        <v>42171</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="H103">
-        <v>16950</v>
+        <v>10900</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4591,13 +4591,13 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>8701</v>
+        <v>10129</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="2">
-        <v>42297</v>
+        <v>42213</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -4606,19 +4606,19 @@
         <v>22</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G104">
-        <v>33900</v>
+        <v>43500</v>
       </c>
       <c r="H104">
-        <v>16950</v>
+        <v>10875</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4629,34 +4629,34 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>8870</v>
+        <v>10130</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="2">
-        <v>42264</v>
+        <v>42213</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F105">
         <v>4</v>
       </c>
       <c r="G105">
-        <v>48320</v>
+        <v>43500</v>
       </c>
       <c r="H105">
-        <v>12080</v>
+        <v>10875</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4667,34 +4667,34 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>8914</v>
+        <v>10201</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="2">
-        <v>42264</v>
+        <v>42213</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G106">
-        <v>48320</v>
+        <v>43500</v>
       </c>
       <c r="H106">
-        <v>48320</v>
+        <v>10875</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J106">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4705,34 +4705,34 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>9252</v>
+        <v>10202</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="2">
-        <v>42157</v>
+        <v>42213</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G107">
-        <v>9000</v>
+        <v>43500</v>
       </c>
       <c r="H107">
-        <v>9000</v>
+        <v>10875</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J107">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4743,34 +4743,34 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>9273</v>
+        <v>10244</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>42157</v>
+        <v>42215</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>9000</v>
+        <v>7950</v>
       </c>
       <c r="H108">
-        <v>9000</v>
+        <v>7950</v>
       </c>
       <c r="I108">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4781,34 +4781,34 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>9370</v>
+        <v>10363</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>42265</v>
+        <v>42233</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G109">
-        <v>26800</v>
+        <v>36600</v>
       </c>
       <c r="H109">
-        <v>8933.333333333334</v>
+        <v>9150</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -4819,31 +4819,31 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>9414</v>
+        <v>10468</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>42265</v>
+        <v>42234</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F110">
         <v>3</v>
       </c>
       <c r="G110">
-        <v>26800</v>
+        <v>28000</v>
       </c>
       <c r="H110">
-        <v>8933.333333333334</v>
+        <v>9333.333333333334</v>
       </c>
       <c r="I110">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4857,34 +4857,34 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>9500</v>
+        <v>10518</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="2">
-        <v>42108</v>
+        <v>42234</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="H111">
-        <v>11250</v>
+        <v>9333.333333333334</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -4895,25 +4895,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>9501</v>
+        <v>10575</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="2">
-        <v>42108</v>
+        <v>42235</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112">
-        <v>45000</v>
+        <v>33750</v>
       </c>
       <c r="H112">
         <v>11250</v>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -4933,34 +4933,34 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>9502</v>
+        <v>10651</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="2">
-        <v>42108</v>
+        <v>42235</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>45000</v>
+        <v>33750</v>
       </c>
       <c r="H113">
         <v>11250</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J113">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4971,34 +4971,34 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>9503</v>
+        <v>10693</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="2">
-        <v>42108</v>
+        <v>42243</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="G114">
-        <v>45000</v>
+        <v>40300</v>
       </c>
       <c r="H114">
-        <v>11250</v>
+        <v>10075</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J114">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5009,34 +5009,34 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>10001</v>
+        <v>10732</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="2">
-        <v>42203</v>
+        <v>42243</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G115">
-        <v>19200</v>
+        <v>40300</v>
       </c>
       <c r="H115">
-        <v>19200</v>
+        <v>10075</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5047,37 +5047,37 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>10117</v>
+        <v>10775</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="2">
-        <v>42195</v>
+        <v>42243</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G116">
-        <v>18375</v>
+        <v>40300</v>
       </c>
       <c r="H116">
-        <v>18375</v>
+        <v>10075</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -5085,31 +5085,31 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>10141</v>
+        <v>10831</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="2">
-        <v>42195</v>
+        <v>42244</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G117">
-        <v>18375</v>
+        <v>32700</v>
       </c>
       <c r="H117">
-        <v>18375</v>
+        <v>10900</v>
       </c>
       <c r="I117">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -5123,34 +5123,34 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>10306</v>
+        <v>10836</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="2">
-        <v>42299</v>
+        <v>42244</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="H118">
-        <v>16950</v>
+        <v>10900</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5161,37 +5161,37 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>10307</v>
+        <v>10953</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>42299</v>
+        <v>42245</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F119">
         <v>2</v>
       </c>
       <c r="G119">
-        <v>33900</v>
+        <v>11250</v>
       </c>
       <c r="H119">
-        <v>16950</v>
+        <v>5625</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -5199,34 +5199,34 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>10479</v>
+        <v>10987</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>42300</v>
+        <v>42245</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>47625</v>
+        <v>11250</v>
       </c>
       <c r="H120">
-        <v>15875</v>
+        <v>5625</v>
       </c>
       <c r="I120">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5237,34 +5237,34 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>10550</v>
+        <v>11119</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>42300</v>
+        <v>42268</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>47625</v>
+        <v>7950</v>
       </c>
       <c r="H121">
-        <v>15875</v>
+        <v>7950</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5275,34 +5275,34 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>10637</v>
+        <v>11162</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="2">
-        <v>42114</v>
+        <v>42270</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>21780</v>
+        <v>27950</v>
       </c>
       <c r="H122">
-        <v>21780</v>
+        <v>9316.666666666666</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J122">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5313,34 +5313,34 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>10712</v>
+        <v>11175</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="2">
-        <v>42127</v>
+        <v>42270</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <v>12000</v>
+        <v>27950</v>
       </c>
       <c r="H123">
-        <v>12000</v>
+        <v>9316.666666666666</v>
       </c>
       <c r="I123">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5351,34 +5351,34 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>10826</v>
+        <v>11374</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="2">
-        <v>42128</v>
+        <v>42271</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F124">
         <v>2</v>
       </c>
       <c r="G124">
-        <v>29870</v>
+        <v>19500</v>
       </c>
       <c r="H124">
-        <v>14935</v>
+        <v>9750</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J124">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5389,34 +5389,34 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>10828</v>
+        <v>11441</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="2">
-        <v>42128</v>
+        <v>42272</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F125">
         <v>2</v>
       </c>
       <c r="G125">
-        <v>29870</v>
+        <v>16950</v>
       </c>
       <c r="H125">
-        <v>14935</v>
+        <v>8475</v>
       </c>
       <c r="I125">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5427,34 +5427,34 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>10831</v>
+        <v>11566</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="2">
-        <v>42128</v>
+        <v>42289</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
       <c r="G126">
-        <v>29870</v>
+        <v>16950</v>
       </c>
       <c r="H126">
-        <v>29870</v>
+        <v>16950</v>
       </c>
       <c r="I126">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5465,34 +5465,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>10866</v>
+        <v>11638</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="2">
-        <v>42144</v>
+        <v>42290</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G127">
-        <v>29800</v>
+        <v>69435</v>
       </c>
       <c r="H127">
-        <v>9933.333333333334</v>
+        <v>17358.75</v>
       </c>
       <c r="I127">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5503,37 +5503,37 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>11066</v>
+        <v>11656</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="2">
-        <v>42171</v>
+        <v>42290</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G128">
-        <v>32700</v>
+        <v>69435</v>
       </c>
       <c r="H128">
-        <v>16350</v>
+        <v>17358.75</v>
       </c>
       <c r="I128">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -5541,31 +5541,31 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>11097</v>
+        <v>11666</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="2">
-        <v>42171</v>
+        <v>42290</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>32700</v>
+        <v>69435</v>
       </c>
       <c r="H129">
-        <v>32700</v>
+        <v>17358.75</v>
       </c>
       <c r="I129">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -5579,34 +5579,34 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>11099</v>
+        <v>11843</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="2">
-        <v>42171</v>
+        <v>42298</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F130">
         <v>2</v>
       </c>
       <c r="G130">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="H130">
-        <v>16350</v>
+        <v>16950</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -5617,34 +5617,34 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>11201</v>
+        <v>11844</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="2">
-        <v>42213</v>
+        <v>42298</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>43500</v>
+        <v>33900</v>
       </c>
       <c r="H131">
-        <v>10875</v>
+        <v>16950</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5655,34 +5655,34 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>11202</v>
+        <v>12007</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>42213</v>
+        <v>42301</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G132">
-        <v>43500</v>
+        <v>122390</v>
       </c>
       <c r="H132">
-        <v>10875</v>
+        <v>20398.33333333333</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -5693,34 +5693,34 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>11301</v>
+        <v>12008</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>42213</v>
+        <v>42301</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G133">
-        <v>43500</v>
+        <v>122390</v>
       </c>
       <c r="H133">
-        <v>10875</v>
+        <v>20398.33333333333</v>
       </c>
       <c r="I133">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5731,34 +5731,34 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>11302</v>
+        <v>12231</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="2">
-        <v>42213</v>
+        <v>42302</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G134">
-        <v>43500</v>
+        <v>50125</v>
       </c>
       <c r="H134">
-        <v>10875</v>
+        <v>16708.33333333333</v>
       </c>
       <c r="I134">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -5769,34 +5769,34 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>11350</v>
+        <v>12242</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
       <c r="C135" s="2">
-        <v>42215</v>
+        <v>42302</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
         <v>22</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G135">
-        <v>7950</v>
+        <v>50125</v>
       </c>
       <c r="H135">
-        <v>7950</v>
+        <v>16708.33333333333</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J135">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5807,34 +5807,34 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>11485</v>
+        <v>12387</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="2">
-        <v>42233</v>
+        <v>42309</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G136">
-        <v>46050</v>
+        <v>151622</v>
       </c>
       <c r="H136">
-        <v>23025</v>
+        <v>15162.2</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -5845,1255 +5845,39 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>11602</v>
+        <v>12388</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="2">
-        <v>42234</v>
+        <v>42309</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G137">
-        <v>28000</v>
+        <v>151622</v>
       </c>
       <c r="H137">
-        <v>28000</v>
+        <v>15162.2</v>
       </c>
       <c r="I137">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="K137">
         <v>0</v>
       </c>
       <c r="L137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="1">
-        <v>11654</v>
-      </c>
-      <c r="B138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="2">
-        <v>42234</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" t="s">
-        <v>84</v>
-      </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
-      <c r="G138">
-        <v>28000</v>
-      </c>
-      <c r="H138">
-        <v>14000</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>67</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="1">
-        <v>11717</v>
-      </c>
-      <c r="B139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="2">
-        <v>42235</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" t="s">
-        <v>22</v>
-      </c>
-      <c r="F139">
-        <v>2</v>
-      </c>
-      <c r="G139">
-        <v>43950</v>
-      </c>
-      <c r="H139">
-        <v>21975</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>63</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="1">
-        <v>11726</v>
-      </c>
-      <c r="B140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="2">
-        <v>42235</v>
-      </c>
-      <c r="D140" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>43950</v>
-      </c>
-      <c r="H140">
-        <v>43950</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>63</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="1">
-        <v>11803</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="2">
-        <v>42235</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>22</v>
-      </c>
-      <c r="F141">
-        <v>2</v>
-      </c>
-      <c r="G141">
-        <v>43950</v>
-      </c>
-      <c r="H141">
-        <v>21975</v>
-      </c>
-      <c r="I141">
-        <v>39</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="1">
-        <v>11848</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="2">
-        <v>42243</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" t="s">
-        <v>85</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
-      </c>
-      <c r="G142">
-        <v>56200</v>
-      </c>
-      <c r="H142">
-        <v>18733.33333333333</v>
-      </c>
-      <c r="I142">
-        <v>47</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="1">
-        <v>11888</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="2">
-        <v>42243</v>
-      </c>
-      <c r="D143" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" t="s">
-        <v>85</v>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-      <c r="G143">
-        <v>56200</v>
-      </c>
-      <c r="H143">
-        <v>18733.33333333333</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>58</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="1">
-        <v>11932</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="2">
-        <v>42243</v>
-      </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" t="s">
-        <v>85</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>56200</v>
-      </c>
-      <c r="H144">
-        <v>56200</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>13</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="1">
-        <v>11990</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="2">
-        <v>42244</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" t="s">
-        <v>86</v>
-      </c>
-      <c r="F145">
-        <v>2</v>
-      </c>
-      <c r="G145">
-        <v>56550</v>
-      </c>
-      <c r="H145">
-        <v>28275</v>
-      </c>
-      <c r="I145">
-        <v>42</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="1">
-        <v>11995</v>
-      </c>
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="2">
-        <v>42244</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" t="s">
-        <v>86</v>
-      </c>
-      <c r="F146">
-        <v>2</v>
-      </c>
-      <c r="G146">
-        <v>56550</v>
-      </c>
-      <c r="H146">
-        <v>28275</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>66</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="1">
-        <v>12120</v>
-      </c>
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="2">
-        <v>42245</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
-        <v>87</v>
-      </c>
-      <c r="F147">
-        <v>2</v>
-      </c>
-      <c r="G147">
-        <v>11250</v>
-      </c>
-      <c r="H147">
-        <v>5625</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>14</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="1">
-        <v>12157</v>
-      </c>
-      <c r="B148" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" s="2">
-        <v>42245</v>
-      </c>
-      <c r="D148" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" t="s">
-        <v>87</v>
-      </c>
-      <c r="F148">
-        <v>2</v>
-      </c>
-      <c r="G148">
-        <v>11250</v>
-      </c>
-      <c r="H148">
-        <v>5625</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>51</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="1">
-        <v>12298</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="2">
-        <v>42268</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" t="s">
-        <v>88</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>7950</v>
-      </c>
-      <c r="H149">
-        <v>7950</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>77</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="1">
-        <v>12342</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="2">
-        <v>42270</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" t="s">
-        <v>89</v>
-      </c>
-      <c r="F150">
-        <v>4</v>
-      </c>
-      <c r="G150">
-        <v>53650</v>
-      </c>
-      <c r="H150">
-        <v>13412.5</v>
-      </c>
-      <c r="I150">
-        <v>27</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="1">
-        <v>12356</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="2">
-        <v>42270</v>
-      </c>
-      <c r="D151" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" t="s">
-        <v>89</v>
-      </c>
-      <c r="F151">
-        <v>4</v>
-      </c>
-      <c r="G151">
-        <v>53650</v>
-      </c>
-      <c r="H151">
-        <v>13412.5</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>95</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="1">
-        <v>12573</v>
-      </c>
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="2">
-        <v>42271</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" t="s">
-        <v>90</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>19500</v>
-      </c>
-      <c r="H152">
-        <v>19500</v>
-      </c>
-      <c r="I152">
-        <v>28</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="1">
-        <v>12645</v>
-      </c>
-      <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="2">
-        <v>42272</v>
-      </c>
-      <c r="D153" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153" t="s">
-        <v>90</v>
-      </c>
-      <c r="F153">
-        <v>2</v>
-      </c>
-      <c r="G153">
-        <v>16950</v>
-      </c>
-      <c r="H153">
-        <v>8475</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>77</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="1">
-        <v>12778</v>
-      </c>
-      <c r="B154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="2">
-        <v>42289</v>
-      </c>
-      <c r="D154" t="s">
-        <v>13</v>
-      </c>
-      <c r="E154" t="s">
-        <v>91</v>
-      </c>
-      <c r="F154">
-        <v>2</v>
-      </c>
-      <c r="G154">
-        <v>50850</v>
-      </c>
-      <c r="H154">
-        <v>25425</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>43</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="1">
-        <v>12853</v>
-      </c>
-      <c r="B155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="2">
-        <v>42290</v>
-      </c>
-      <c r="D155" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155" t="s">
-        <v>92</v>
-      </c>
-      <c r="F155">
-        <v>2</v>
-      </c>
-      <c r="G155">
-        <v>143455</v>
-      </c>
-      <c r="H155">
-        <v>71727.5</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>50</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="1">
-        <v>12871</v>
-      </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="2">
-        <v>42290</v>
-      </c>
-      <c r="D156" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" t="s">
-        <v>92</v>
-      </c>
-      <c r="F156">
-        <v>2</v>
-      </c>
-      <c r="G156">
-        <v>143455</v>
-      </c>
-      <c r="H156">
-        <v>71727.5</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>11</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="1">
-        <v>12884</v>
-      </c>
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="2">
-        <v>42290</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" t="s">
-        <v>92</v>
-      </c>
-      <c r="F157">
-        <v>2</v>
-      </c>
-      <c r="G157">
-        <v>143455</v>
-      </c>
-      <c r="H157">
-        <v>71727.5</v>
-      </c>
-      <c r="I157">
-        <v>32</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="1">
-        <v>13074</v>
-      </c>
-      <c r="B158" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D158" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158" t="s">
-        <v>93</v>
-      </c>
-      <c r="F158">
-        <v>2</v>
-      </c>
-      <c r="G158">
-        <v>33900</v>
-      </c>
-      <c r="H158">
-        <v>16950</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>142</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="1">
-        <v>13075</v>
-      </c>
-      <c r="B159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D159" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" t="s">
-        <v>94</v>
-      </c>
-      <c r="F159">
-        <v>2</v>
-      </c>
-      <c r="G159">
-        <v>33900</v>
-      </c>
-      <c r="H159">
-        <v>16950</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>142</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="1">
-        <v>13262</v>
-      </c>
-      <c r="B160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" t="s">
-        <v>95</v>
-      </c>
-      <c r="F160">
-        <v>4</v>
-      </c>
-      <c r="G160">
-        <v>122390</v>
-      </c>
-      <c r="H160">
-        <v>30597.5</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>138</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="1">
-        <v>13263</v>
-      </c>
-      <c r="B161" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161" t="s">
-        <v>96</v>
-      </c>
-      <c r="F161">
-        <v>4</v>
-      </c>
-      <c r="G161">
-        <v>122390</v>
-      </c>
-      <c r="H161">
-        <v>30597.5</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>138</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="1">
-        <v>13308</v>
-      </c>
-      <c r="B162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" t="s">
-        <v>95</v>
-      </c>
-      <c r="F162">
-        <v>2</v>
-      </c>
-      <c r="G162">
-        <v>122390</v>
-      </c>
-      <c r="H162">
-        <v>61195</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>138</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="1">
-        <v>13309</v>
-      </c>
-      <c r="B163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" t="s">
-        <v>96</v>
-      </c>
-      <c r="F163">
-        <v>2</v>
-      </c>
-      <c r="G163">
-        <v>122390</v>
-      </c>
-      <c r="H163">
-        <v>61195</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>138</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="1">
-        <v>13522</v>
-      </c>
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164">
-        <v>2</v>
-      </c>
-      <c r="G164">
-        <v>67075</v>
-      </c>
-      <c r="H164">
-        <v>33537.5</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>64</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="1">
-        <v>13534</v>
-      </c>
-      <c r="B165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D165" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>67075</v>
-      </c>
-      <c r="H165">
-        <v>67075</v>
-      </c>
-      <c r="I165">
-        <v>31</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="1">
-        <v>13700</v>
-      </c>
-      <c r="B166" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D166" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" t="s">
-        <v>97</v>
-      </c>
-      <c r="F166">
-        <v>8</v>
-      </c>
-      <c r="G166">
-        <v>151622</v>
-      </c>
-      <c r="H166">
-        <v>18952.75</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>124</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="1">
-        <v>13701</v>
-      </c>
-      <c r="B167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D167" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" t="s">
-        <v>98</v>
-      </c>
-      <c r="F167">
-        <v>8</v>
-      </c>
-      <c r="G167">
-        <v>151622</v>
-      </c>
-      <c r="H167">
-        <v>18952.75</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>124</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="1">
-        <v>13704</v>
-      </c>
-      <c r="B168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" t="s">
-        <v>97</v>
-      </c>
-      <c r="F168">
-        <v>2</v>
-      </c>
-      <c r="G168">
-        <v>151622</v>
-      </c>
-      <c r="H168">
-        <v>75811</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>124</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="1">
-        <v>13705</v>
-      </c>
-      <c r="B169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D169" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" t="s">
-        <v>98</v>
-      </c>
-      <c r="F169">
-        <v>2</v>
-      </c>
-      <c r="G169">
-        <v>151622</v>
-      </c>
-      <c r="H169">
-        <v>75811</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>124</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
         <v>0</v>
       </c>
     </row>
